--- a/Doc_Excel.xlsx
+++ b/Doc_Excel.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Primera_ws" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Primera_ws Copy" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +477,23 @@
     <row r="10">
       <c r="A10" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fin de las celdas</t>
+        </is>
+      </c>
+    </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fs</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -499,4 +517,79 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="001072AB"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>hola</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>